--- a/Code/Results/Cases/Case_9_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.739942449241596</v>
+        <v>1.688273856502832</v>
       </c>
       <c r="C2">
-        <v>0.4632598579826492</v>
+        <v>0.4889526257608452</v>
       </c>
       <c r="D2">
-        <v>0.05499231089551415</v>
+        <v>0.05774272273618664</v>
       </c>
       <c r="E2">
-        <v>0.3206747223984365</v>
+        <v>0.3181667557586678</v>
       </c>
       <c r="F2">
-        <v>0.4263591906634119</v>
+        <v>0.4092271327157846</v>
       </c>
       <c r="G2">
-        <v>0.3194811975907044</v>
+        <v>0.2855641361374168</v>
       </c>
       <c r="H2">
-        <v>0.002337094618343749</v>
+        <v>0.00222315491663283</v>
       </c>
       <c r="I2">
-        <v>0.005075641887654303</v>
+        <v>0.004971766928157706</v>
       </c>
       <c r="J2">
-        <v>0.250896634776538</v>
+        <v>0.286947438466342</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1255903002812637</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03709437518559078</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8079008441173627</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7516040940281172</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.152793997354536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8086924488060703</v>
+      </c>
+      <c r="R2">
+        <v>0.7696399893969854</v>
+      </c>
+      <c r="S2">
+        <v>1.09949528114069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.51701163241782</v>
+        <v>1.478010948968887</v>
       </c>
       <c r="C3">
-        <v>0.4185136137806751</v>
+        <v>0.435330147491527</v>
       </c>
       <c r="D3">
-        <v>0.048476566776678</v>
+        <v>0.05057345666926949</v>
       </c>
       <c r="E3">
-        <v>0.2875780912350621</v>
+        <v>0.2857270720048533</v>
       </c>
       <c r="F3">
-        <v>0.3906915281818044</v>
+        <v>0.3772542906429379</v>
       </c>
       <c r="G3">
-        <v>0.2925417407918687</v>
+        <v>0.2619307537530204</v>
       </c>
       <c r="H3">
-        <v>0.001274848625824276</v>
+        <v>0.001219438829331843</v>
       </c>
       <c r="I3">
-        <v>0.003604045225081176</v>
+        <v>0.003676888884871943</v>
       </c>
       <c r="J3">
-        <v>0.2421082063886644</v>
+        <v>0.2784835223753319</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1301681949931321</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03435155387789024</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7040574518824627</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.757932199902065</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.07700864231856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7048192542341312</v>
+      </c>
+      <c r="R3">
+        <v>0.7697797609575545</v>
+      </c>
+      <c r="S3">
+        <v>1.034906659826731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.379440024770616</v>
+        <v>1.347976935593209</v>
       </c>
       <c r="C4">
-        <v>0.3911908434449742</v>
+        <v>0.4027158157645374</v>
       </c>
       <c r="D4">
-        <v>0.04448270353331907</v>
+        <v>0.04618918222271162</v>
       </c>
       <c r="E4">
-        <v>0.2672173500213546</v>
+        <v>0.2657694635548964</v>
       </c>
       <c r="F4">
-        <v>0.3691586452420808</v>
+        <v>0.3578813935823604</v>
       </c>
       <c r="G4">
-        <v>0.2762803249354704</v>
+        <v>0.2476691999002654</v>
       </c>
       <c r="H4">
-        <v>0.0007650319430312358</v>
+        <v>0.0007361598793098612</v>
       </c>
       <c r="I4">
-        <v>0.002832949868563528</v>
+        <v>0.002992742939061266</v>
       </c>
       <c r="J4">
-        <v>0.2369248348940829</v>
+        <v>0.2733395722122225</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1330929621863888</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03315743619190137</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6402767801416331</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7624571198393184</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.031506212541828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6410054074964506</v>
+      </c>
+      <c r="R4">
+        <v>0.7705864075742781</v>
+      </c>
+      <c r="S4">
+        <v>0.9959321035329083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.322225413163721</v>
+        <v>1.293793280276162</v>
       </c>
       <c r="C5">
-        <v>0.380732239555627</v>
+        <v>0.3901672333666113</v>
       </c>
       <c r="D5">
-        <v>0.04290322252220591</v>
+        <v>0.04445396560814885</v>
       </c>
       <c r="E5">
-        <v>0.2588873511425405</v>
+        <v>0.2576045111362575</v>
       </c>
       <c r="F5">
-        <v>0.3601096123625567</v>
+        <v>0.3496947463553468</v>
       </c>
       <c r="G5">
-        <v>0.2693533227260758</v>
+        <v>0.2415639359172914</v>
       </c>
       <c r="H5">
-        <v>0.0005904142893913278</v>
+        <v>0.0005701883685245157</v>
       </c>
       <c r="I5">
-        <v>0.002605402008864388</v>
+        <v>0.002808500917264034</v>
       </c>
       <c r="J5">
-        <v>0.2346757517096165</v>
+        <v>0.2710657631891706</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1341724695591004</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03273466143070536</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6142934719696953</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7647627767621756</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.012038218679336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6150054538088625</v>
+      </c>
+      <c r="R5">
+        <v>0.7714186988882688</v>
+      </c>
+      <c r="S5">
+        <v>0.9790738534056516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.311518135111299</v>
+        <v>1.283607812419376</v>
       </c>
       <c r="C6">
-        <v>0.3797846717155409</v>
+        <v>0.3889083047594966</v>
       </c>
       <c r="D6">
-        <v>0.04269834151824625</v>
+        <v>0.0442242073500978</v>
       </c>
       <c r="E6">
-        <v>0.2574787151864584</v>
+        <v>0.2562240627273837</v>
       </c>
       <c r="F6">
-        <v>0.3581716155324415</v>
+        <v>0.347908877174298</v>
       </c>
       <c r="G6">
-        <v>0.2677605385515207</v>
+        <v>0.2401252045567261</v>
       </c>
       <c r="H6">
-        <v>0.0005628589082176116</v>
+        <v>0.0005439709197772036</v>
       </c>
       <c r="I6">
-        <v>0.002644806339088035</v>
+        <v>0.002872070526964698</v>
       </c>
       <c r="J6">
-        <v>0.2340755877423533</v>
+        <v>0.2704566993183732</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1341820613006597</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03260008573232209</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6100001454042001</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7655311071555246</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.007392337729115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6107092340370173</v>
+      </c>
+      <c r="R6">
+        <v>0.7719697903192255</v>
+      </c>
+      <c r="S6">
+        <v>0.97489806305569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.375390542314875</v>
+        <v>1.343010729623046</v>
       </c>
       <c r="C7">
-        <v>0.3932057002308227</v>
+        <v>0.4043298061197902</v>
       </c>
       <c r="D7">
-        <v>0.04461840395106265</v>
+        <v>0.04642996128409038</v>
       </c>
       <c r="E7">
-        <v>0.2670382681744883</v>
+        <v>0.2656713364612102</v>
       </c>
       <c r="F7">
-        <v>0.3678319173589415</v>
+        <v>0.3558471970788375</v>
       </c>
       <c r="G7">
-        <v>0.2749659939439937</v>
+        <v>0.2492098303704324</v>
       </c>
       <c r="H7">
-        <v>0.000760866480754796</v>
+        <v>0.0007309979637548647</v>
       </c>
       <c r="I7">
-        <v>0.003021083607744224</v>
+        <v>0.003222137318434903</v>
       </c>
       <c r="J7">
-        <v>0.236266831750747</v>
+        <v>0.2685270004459142</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1325016533490455</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03287301315233915</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6399861406934875</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7635288195869876</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.027340603247623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6404497897310932</v>
+      </c>
+      <c r="R7">
+        <v>0.7721287455783354</v>
+      </c>
+      <c r="S7">
+        <v>0.9895209377297931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.658833560080467</v>
+        <v>1.608260805569898</v>
       </c>
       <c r="C8">
-        <v>0.450683451376733</v>
+        <v>0.4718537882509395</v>
       </c>
       <c r="D8">
-        <v>0.05295383775782625</v>
+        <v>0.05583418429583276</v>
       </c>
       <c r="E8">
-        <v>0.309182693611497</v>
+        <v>0.3071665589377943</v>
       </c>
       <c r="F8">
-        <v>0.4123818688510852</v>
+        <v>0.3941006645304483</v>
       </c>
       <c r="G8">
-        <v>0.3085102453680335</v>
+        <v>0.2851810277622135</v>
       </c>
       <c r="H8">
-        <v>0.001936587647560106</v>
+        <v>0.001839100202837507</v>
       </c>
       <c r="I8">
-        <v>0.004766821894702566</v>
+        <v>0.004769251732936297</v>
       </c>
       <c r="J8">
-        <v>0.2469907964742575</v>
+        <v>0.2696263134861638</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1261618764391415</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03544041914001994</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.772175005765682</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7550904270343182</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.121264768549878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7720694154947481</v>
+      </c>
+      <c r="R8">
+        <v>0.7725513177162853</v>
+      </c>
+      <c r="S8">
+        <v>1.064119194197502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.215256049280072</v>
+        <v>2.130571480059416</v>
       </c>
       <c r="C9">
-        <v>0.5608797145929998</v>
+        <v>0.6045205815367183</v>
       </c>
       <c r="D9">
-        <v>0.06909044998641889</v>
+        <v>0.07376685475011868</v>
       </c>
       <c r="E9">
-        <v>0.3917680543912994</v>
+        <v>0.3881837790229383</v>
       </c>
       <c r="F9">
-        <v>0.5051335283051372</v>
+        <v>0.4762467536413908</v>
       </c>
       <c r="G9">
-        <v>0.3789735929120326</v>
+        <v>0.349834851180205</v>
       </c>
       <c r="H9">
-        <v>0.005481474281170295</v>
+        <v>0.005172026752869097</v>
       </c>
       <c r="I9">
-        <v>0.009062150736132146</v>
+        <v>0.008423185277385059</v>
       </c>
       <c r="J9">
-        <v>0.2709490700890029</v>
+        <v>0.2880474727000859</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1158982377510753</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04512163083621878</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.031375967326369</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7418780821996336</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.321447830239634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.030968641336109</v>
+      </c>
+      <c r="R9">
+        <v>0.775671776604149</v>
+      </c>
+      <c r="S9">
+        <v>1.231946253183565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.620598291501381</v>
+        <v>2.504407053995578</v>
       </c>
       <c r="C10">
-        <v>0.6442057368317649</v>
+        <v>0.7016658448504813</v>
       </c>
       <c r="D10">
-        <v>0.08191897863767394</v>
+        <v>0.0886028418778011</v>
       </c>
       <c r="E10">
-        <v>0.4237332002235377</v>
+        <v>0.4195339574620363</v>
       </c>
       <c r="F10">
-        <v>0.5691728537935958</v>
+        <v>0.5280810421090436</v>
       </c>
       <c r="G10">
-        <v>0.4260454492817303</v>
+        <v>0.4100279832153575</v>
       </c>
       <c r="H10">
-        <v>0.00880485327679148</v>
+        <v>0.00827210305112569</v>
       </c>
       <c r="I10">
-        <v>0.0130993200362024</v>
+        <v>0.01183984331928212</v>
       </c>
       <c r="J10">
-        <v>0.2865202853852367</v>
+        <v>0.2765023562216129</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1074075020617418</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05291835724128191</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.18540929097955</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7425870428209791</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.454271156212997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.183080285990357</v>
+      </c>
+      <c r="R10">
+        <v>0.7920349833015479</v>
+      </c>
+      <c r="S10">
+        <v>1.327262467703548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.810039948584006</v>
+        <v>2.677493682663282</v>
       </c>
       <c r="C11">
-        <v>0.6874017674620347</v>
+        <v>0.7401896458093802</v>
       </c>
       <c r="D11">
-        <v>0.09548966091249866</v>
+        <v>0.1041716237544108</v>
       </c>
       <c r="E11">
-        <v>0.2327667596794356</v>
+        <v>0.229229711678002</v>
       </c>
       <c r="F11">
-        <v>0.5458445083181545</v>
+        <v>0.4971403214452152</v>
       </c>
       <c r="G11">
-        <v>0.3947390811697034</v>
+        <v>0.4174617429595315</v>
       </c>
       <c r="H11">
-        <v>0.02624395637386101</v>
+        <v>0.02568235705935606</v>
       </c>
       <c r="I11">
-        <v>0.01485012810586728</v>
+        <v>0.01339870069488569</v>
       </c>
       <c r="J11">
-        <v>0.2672190293299792</v>
+        <v>0.2178198818182224</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09612021367560075</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04709793921503902</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9535847511957272</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.806476831902998</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.347659789880453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9484570164688435</v>
+      </c>
+      <c r="R11">
+        <v>0.8720431449900872</v>
+      </c>
+      <c r="S11">
+        <v>1.19988396986605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.890602675954369</v>
+        <v>2.754728081856058</v>
       </c>
       <c r="C12">
-        <v>0.7029235313083291</v>
+        <v>0.750108259885792</v>
       </c>
       <c r="D12">
-        <v>0.1044288441653123</v>
+        <v>0.1139919854860665</v>
       </c>
       <c r="E12">
-        <v>0.1245679058509417</v>
+        <v>0.1210007887331166</v>
       </c>
       <c r="F12">
-        <v>0.5145953623502209</v>
+        <v>0.4649460303036363</v>
       </c>
       <c r="G12">
-        <v>0.3610889080070052</v>
+        <v>0.4017879735085756</v>
       </c>
       <c r="H12">
-        <v>0.06389414241099445</v>
+        <v>0.06335487754530078</v>
       </c>
       <c r="I12">
-        <v>0.01516093379972094</v>
+        <v>0.01362135019861199</v>
       </c>
       <c r="J12">
-        <v>0.2487966204531347</v>
+        <v>0.1884010891541266</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08973692531988853</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04152817257912567</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7492273133250436</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.865766590552866</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.237812042156349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7434925190439259</v>
+      </c>
+      <c r="R12">
+        <v>0.9396930029318042</v>
+      </c>
+      <c r="S12">
+        <v>1.089799976765988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.886118932926138</v>
+        <v>2.760096180146604</v>
       </c>
       <c r="C13">
-        <v>0.7013575357445347</v>
+        <v>0.7434984059945577</v>
       </c>
       <c r="D13">
-        <v>0.1104723483963284</v>
+        <v>0.1196682889974028</v>
       </c>
       <c r="E13">
-        <v>0.07277570369369046</v>
+        <v>0.06896863767369776</v>
       </c>
       <c r="F13">
-        <v>0.4734849543916013</v>
+        <v>0.4294877762963125</v>
       </c>
       <c r="G13">
-        <v>0.321752228739598</v>
+        <v>0.3588372434802807</v>
       </c>
       <c r="H13">
-        <v>0.1185814593362977</v>
+        <v>0.118105450485686</v>
       </c>
       <c r="I13">
-        <v>0.01463774983118338</v>
+        <v>0.01318722790626747</v>
       </c>
       <c r="J13">
-        <v>0.2289577855794533</v>
+        <v>0.179595767491314</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08584431858839103</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03566946410045446</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5553732991083606</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9253121163023366</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.112863593493813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5507570910939492</v>
+      </c>
+      <c r="R13">
+        <v>0.9993071911208631</v>
+      </c>
+      <c r="S13">
+        <v>0.984440410395905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.843399041949056</v>
+        <v>2.730171776878592</v>
       </c>
       <c r="C14">
-        <v>0.69324396924452</v>
+        <v>0.7321051301495913</v>
       </c>
       <c r="D14">
-        <v>0.1134517289680019</v>
+        <v>0.1217957868538804</v>
       </c>
       <c r="E14">
-        <v>0.06962148986599903</v>
+        <v>0.06577295372695602</v>
       </c>
       <c r="F14">
-        <v>0.4402033843499353</v>
+        <v>0.4027919084402001</v>
       </c>
       <c r="G14">
-        <v>0.2916921412106888</v>
+        <v>0.3179511573244866</v>
       </c>
       <c r="H14">
-        <v>0.1672120845299787</v>
+        <v>0.1667927047576825</v>
       </c>
       <c r="I14">
-        <v>0.01397888031148842</v>
+        <v>0.01268141685766722</v>
       </c>
       <c r="J14">
-        <v>0.2144115434866762</v>
+        <v>0.1808924430937466</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08400986012194878</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03147863283238905</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4288307832369185</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9678799085956769</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.018631727504186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4254800602442828</v>
+      </c>
+      <c r="R14">
+        <v>1.037659766818379</v>
+      </c>
+      <c r="S14">
+        <v>0.9114671986080509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.813301017127969</v>
+        <v>2.705779513018058</v>
       </c>
       <c r="C15">
-        <v>0.6885246078665546</v>
+        <v>0.726680506404989</v>
       </c>
       <c r="D15">
-        <v>0.1135638652259701</v>
+        <v>0.121448620762834</v>
       </c>
       <c r="E15">
-        <v>0.0730712498654178</v>
+        <v>0.06930017381459663</v>
       </c>
       <c r="F15">
-        <v>0.429620933673327</v>
+        <v>0.3949699527090473</v>
       </c>
       <c r="G15">
-        <v>0.2827118220717324</v>
+        <v>0.3029880309588435</v>
       </c>
       <c r="H15">
-        <v>0.179462149040404</v>
+        <v>0.179066211927136</v>
       </c>
       <c r="I15">
-        <v>0.01373075609705232</v>
+        <v>0.01253026337856333</v>
       </c>
       <c r="J15">
-        <v>0.2103608615494039</v>
+        <v>0.1843422863154203</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08386286675393251</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03028840024404644</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3975058880539137</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9778697582546982</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9910821080174799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3946564712779335</v>
+      </c>
+      <c r="R15">
+        <v>1.044877263314874</v>
+      </c>
+      <c r="S15">
+        <v>0.892447713673306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.637112298757586</v>
+        <v>2.551420664244631</v>
       </c>
       <c r="C16">
-        <v>0.654091092596957</v>
+        <v>0.6920796794323394</v>
       </c>
       <c r="D16">
-        <v>0.1066639272100645</v>
+        <v>0.1124720374519228</v>
       </c>
       <c r="E16">
-        <v>0.07128341108644953</v>
+        <v>0.06813417791221532</v>
       </c>
       <c r="F16">
-        <v>0.4100046738036127</v>
+        <v>0.3851720451812639</v>
       </c>
       <c r="G16">
-        <v>0.2701572972144888</v>
+        <v>0.2631081836812115</v>
       </c>
       <c r="H16">
-        <v>0.1656281509589945</v>
+        <v>0.1653301546708548</v>
       </c>
       <c r="I16">
-        <v>0.01213849259551925</v>
+        <v>0.01129708616645964</v>
       </c>
       <c r="J16">
-        <v>0.2073825001450231</v>
+        <v>0.2141250445696912</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08736701100139044</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02920147744882406</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3769868778661163</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9621692571922296</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9580504826227383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3759345558353431</v>
+      </c>
+      <c r="R16">
+        <v>1.014695009419583</v>
+      </c>
+      <c r="S16">
+        <v>0.8880782521699331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.524818018027759</v>
+        <v>2.447109529214231</v>
       </c>
       <c r="C17">
-        <v>0.6321522830192521</v>
+        <v>0.6709326960930753</v>
       </c>
       <c r="D17">
-        <v>0.09981121041123941</v>
+        <v>0.1047609249718846</v>
       </c>
       <c r="E17">
-        <v>0.06619737324344976</v>
+        <v>0.06326627658588935</v>
       </c>
       <c r="F17">
-        <v>0.4125856581834455</v>
+        <v>0.3909840659220976</v>
       </c>
       <c r="G17">
-        <v>0.2763461465319139</v>
+        <v>0.2572074842522269</v>
       </c>
       <c r="H17">
-        <v>0.1273611556786847</v>
+        <v>0.1271047304831683</v>
       </c>
       <c r="I17">
-        <v>0.01130498058078366</v>
+        <v>0.01064535487270479</v>
       </c>
       <c r="J17">
-        <v>0.2127996495448556</v>
+        <v>0.234215361317645</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0912590152622812</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03037776855789431</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.425256550469058</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.927788653622315</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9824000132742583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4249393352070427</v>
+      </c>
+      <c r="R17">
+        <v>0.9734476250736748</v>
+      </c>
+      <c r="S17">
+        <v>0.9211735910677561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.457738041853474</v>
+        <v>2.379713189593474</v>
       </c>
       <c r="C18">
-        <v>0.6165497851631017</v>
+        <v>0.6580076059024691</v>
       </c>
       <c r="D18">
-        <v>0.09222669540606887</v>
+        <v>0.09693233280131608</v>
       </c>
       <c r="E18">
-        <v>0.08630324260502142</v>
+        <v>0.08323705151444827</v>
       </c>
       <c r="F18">
-        <v>0.4355887309147377</v>
+        <v>0.4134627947423724</v>
       </c>
       <c r="G18">
-        <v>0.3007289664124499</v>
+        <v>0.2744332191534511</v>
       </c>
       <c r="H18">
-        <v>0.07469583963618476</v>
+        <v>0.07444117026788888</v>
       </c>
       <c r="I18">
-        <v>0.01077603708453534</v>
+        <v>0.01013461469660193</v>
       </c>
       <c r="J18">
-        <v>0.2266474956920064</v>
+        <v>0.253644960847403</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0964739936157688</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03402639172895583</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5505453508084202</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8750405525162108</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.063022764048327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5505699473114589</v>
+      </c>
+      <c r="R18">
+        <v>0.9174686733807533</v>
+      </c>
+      <c r="S18">
+        <v>0.9989024098020423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.425564062193416</v>
+        <v>2.341918485419683</v>
       </c>
       <c r="C19">
-        <v>0.6117266857898471</v>
+        <v>0.6578001274638154</v>
       </c>
       <c r="D19">
-        <v>0.08518288162338195</v>
+        <v>0.08999976756015116</v>
       </c>
       <c r="E19">
-        <v>0.1681479395230561</v>
+        <v>0.1646729154454896</v>
       </c>
       <c r="F19">
-        <v>0.47187115934274</v>
+        <v>0.4468154715111083</v>
       </c>
       <c r="G19">
-        <v>0.3370643475581687</v>
+        <v>0.3057616725006369</v>
       </c>
       <c r="H19">
-        <v>0.03043247676612992</v>
+        <v>0.03014010528939792</v>
       </c>
       <c r="I19">
-        <v>0.01101216004542582</v>
+        <v>0.01037435338425219</v>
       </c>
       <c r="J19">
-        <v>0.2456335142087624</v>
+        <v>0.2728882826878731</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1021800277956331</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03925908122553601</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7485314237402747</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8188600255768108</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.179792223444935</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7486642386072333</v>
+      </c>
+      <c r="R19">
+        <v>0.8600621754835061</v>
+      </c>
+      <c r="S19">
+        <v>1.105198260332713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.503861380120043</v>
+        <v>2.400185531169143</v>
       </c>
       <c r="C20">
-        <v>0.6292525210522513</v>
+        <v>0.6852278004800212</v>
       </c>
       <c r="D20">
-        <v>0.07908443889549233</v>
+        <v>0.08485075291627453</v>
       </c>
       <c r="E20">
-        <v>0.4139085998320695</v>
+        <v>0.4095925629022403</v>
       </c>
       <c r="F20">
-        <v>0.5481560225579045</v>
+        <v>0.5132051703702913</v>
       </c>
       <c r="G20">
-        <v>0.4094735564488019</v>
+        <v>0.3797349257260407</v>
       </c>
       <c r="H20">
-        <v>0.007826868997658831</v>
+        <v>0.007370424017024924</v>
       </c>
       <c r="I20">
-        <v>0.01259525588618615</v>
+        <v>0.01170136608240924</v>
       </c>
       <c r="J20">
-        <v>0.280271130095457</v>
+        <v>0.2913903497409649</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1089657523323417</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05008767986916496</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.143611210213635</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7461334050279902</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.405944130207587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.142780430564628</v>
+      </c>
+      <c r="R20">
+        <v>0.7900583241012527</v>
+      </c>
+      <c r="S20">
+        <v>1.298240630437846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.81428345402054</v>
+        <v>2.664208409938567</v>
       </c>
       <c r="C21">
-        <v>0.6919877331453392</v>
+        <v>0.7503953234511869</v>
       </c>
       <c r="D21">
-        <v>0.08759373241199597</v>
+        <v>0.09709967174936196</v>
       </c>
       <c r="E21">
-        <v>0.4830802597367452</v>
+        <v>0.4798344205290377</v>
       </c>
       <c r="F21">
-        <v>0.6081612282356801</v>
+        <v>0.5483322380258997</v>
       </c>
       <c r="G21">
-        <v>0.4564062698869833</v>
+        <v>0.4937747699959232</v>
       </c>
       <c r="H21">
-        <v>0.01100480511816279</v>
+        <v>0.01026597285234343</v>
       </c>
       <c r="I21">
-        <v>0.01598955813570413</v>
+        <v>0.01438232228338698</v>
       </c>
       <c r="J21">
-        <v>0.2977244177895102</v>
+        <v>0.2218894412710455</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.102517571612383</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05622115985418574</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.318944427318002</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7375399292794285</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.542306327937752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.31120001116895</v>
+      </c>
+      <c r="R21">
+        <v>0.8028381800278908</v>
+      </c>
+      <c r="S21">
+        <v>1.356344358007703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.021735508681445</v>
+        <v>2.839387896891878</v>
       </c>
       <c r="C22">
-        <v>0.7304251524003575</v>
+        <v>0.7891792337516961</v>
       </c>
       <c r="D22">
-        <v>0.09338323008947214</v>
+        <v>0.1055694086176544</v>
       </c>
       <c r="E22">
-        <v>0.5137858418331334</v>
+        <v>0.5114980499414017</v>
       </c>
       <c r="F22">
-        <v>0.6465370304653817</v>
+        <v>0.569173492436768</v>
       </c>
       <c r="G22">
-        <v>0.4861112043966216</v>
+        <v>0.5766594026010381</v>
       </c>
       <c r="H22">
-        <v>0.01319814488151755</v>
+        <v>0.01225430226184129</v>
       </c>
       <c r="I22">
-        <v>0.0181265496533598</v>
+        <v>0.01593469763650734</v>
       </c>
       <c r="J22">
-        <v>0.3087085711232334</v>
+        <v>0.1810523060624263</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09835593278379484</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06031632421730393</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.414927701171734</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.734274725602198</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.628481168442931</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.402083174873042</v>
+      </c>
+      <c r="R22">
+        <v>0.8148237415797013</v>
+      </c>
+      <c r="S22">
+        <v>1.387541807741599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.915065814433603</v>
+        <v>2.752686489633845</v>
       </c>
       <c r="C23">
-        <v>0.7072156658215363</v>
+        <v>0.7669383926296689</v>
       </c>
       <c r="D23">
-        <v>0.09009852764497595</v>
+        <v>0.1005300600414358</v>
       </c>
       <c r="E23">
-        <v>0.4974626981883787</v>
+        <v>0.4944107406509772</v>
       </c>
       <c r="F23">
-        <v>0.6274321073428126</v>
+        <v>0.5613742884397865</v>
       </c>
       <c r="G23">
-        <v>0.4716627972648979</v>
+        <v>0.5248787657876477</v>
       </c>
       <c r="H23">
-        <v>0.01201316115364034</v>
+        <v>0.0111888829742908</v>
       </c>
       <c r="I23">
-        <v>0.01672715193613694</v>
+        <v>0.01480234200672825</v>
       </c>
       <c r="J23">
-        <v>0.3035551217530355</v>
+        <v>0.2098582167908489</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1010879571831484</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05881483392622755</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.363613027567723</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7345030395618508</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.586953051180785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.354254265729722</v>
+      </c>
+      <c r="R23">
+        <v>0.8052524256986686</v>
+      </c>
+      <c r="S23">
+        <v>1.381399586668635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.503942334690009</v>
+        <v>2.399830476661691</v>
       </c>
       <c r="C24">
-        <v>0.6240541243234077</v>
+        <v>0.6801907019979865</v>
       </c>
       <c r="D24">
-        <v>0.07800532572093033</v>
+        <v>0.08374033702083494</v>
       </c>
       <c r="E24">
-        <v>0.4356967716423839</v>
+        <v>0.4313121373780859</v>
       </c>
       <c r="F24">
-        <v>0.5540611317946826</v>
+        <v>0.518819819635894</v>
       </c>
       <c r="G24">
-        <v>0.4156737486844833</v>
+        <v>0.3849131615106813</v>
       </c>
       <c r="H24">
-        <v>0.007945313644955876</v>
+        <v>0.00748137584601799</v>
       </c>
       <c r="I24">
-        <v>0.01220299216869325</v>
+        <v>0.01120521605354963</v>
       </c>
       <c r="J24">
-        <v>0.2834873274223781</v>
+        <v>0.2950780802390369</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.110262193612833</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05128997601866914</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.169780966138561</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7391607225380028</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.425819389005227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.168988608950912</v>
+      </c>
+      <c r="R24">
+        <v>0.7823813426857313</v>
+      </c>
+      <c r="S24">
+        <v>1.316923788401994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.059218049042101</v>
+        <v>1.985632081114602</v>
       </c>
       <c r="C25">
-        <v>0.5348986390358732</v>
+        <v>0.5732514310491297</v>
       </c>
       <c r="D25">
-        <v>0.0650042851147532</v>
+        <v>0.06903853254544856</v>
       </c>
       <c r="E25">
-        <v>0.3693093876905564</v>
+        <v>0.3660406790546205</v>
       </c>
       <c r="F25">
-        <v>0.4774594825478644</v>
+        <v>0.4527012564758692</v>
       </c>
       <c r="G25">
-        <v>0.3573849038105976</v>
+        <v>0.325864813371382</v>
       </c>
       <c r="H25">
-        <v>0.00436883697335666</v>
+        <v>0.004130949351203284</v>
       </c>
       <c r="I25">
-        <v>0.008095190918528061</v>
+        <v>0.007748990265266542</v>
       </c>
       <c r="J25">
-        <v>0.263124818357511</v>
+        <v>0.2876604437762467</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1181240272193076</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04168825035990231</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.961313429640434</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7469263856669457</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.259131452197352</v>
+        <v>0.9613961805029092</v>
+      </c>
+      <c r="R25">
+        <v>0.7757827436382314</v>
+      </c>
+      <c r="S25">
+        <v>1.182465436897104</v>
       </c>
     </row>
   </sheetData>
